--- a/biology/Histoire de la zoologie et de la botanique/Liste_de_biologistes/Liste_de_biologistes.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Liste_de_biologistes/Liste_de_biologistes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste, non-exhaustive, rassemble des biologistes, classés par ordre chronologique de naissance.
 </t>
@@ -511,7 +523,9 @@
           <t>Nés avant ou durant le premier millénaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aristote, (-384 - -322), philosophe et savant grec
 Théophraste (-371 - -288), philosophe et botaniste grec
@@ -544,7 +558,9 @@
           <t>Nés au XVIe siècle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>André Vésale, (1514 - 1564), médecin et anatomiste belge, fossoyeur du galénisme et fondateur de l'anatomie moderne
 René Descartes, (1596 - 1650), philosophe, mathématicien et physicien français</t>
@@ -575,7 +591,9 @@
           <t>Nés au XVIIe siècle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Francesco Redi (1626-1697), parasitologiste italien
 Marcello Malpighi, (1628 - 1694), médecin italien, fondateur de l'histologie
@@ -611,7 +629,9 @@
           <t>Nés au XVIIIe siècle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Buffon, (1707 - 1788), auteur de l’Histoire Naturelle
 Carl von Linné, (1707 - 1778), botaniste suédois, concepteur du système général de classification naturelle
@@ -652,7 +672,9 @@
           <t>Nés au XIXe siècle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Leopold Fitzinger, (1802 - 1884), zoologiste autrichien
 Matthias Jakob Schleiden (1804-1881), botaniste allemand, cofondateur de la théorie cellulaire
@@ -708,7 +730,9 @@
           <t>Nés au XXe siècle</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Herbert Copeland (1902-1968), biologiste américain
 André Lwoff (1902-1994), microbiologiste français, lauréat en 1965 du Prix Nobel de physiologie ou médecine
